--- a/WPFTest/WPFTest/bin/Debug/Files/list.xlsx
+++ b/WPFTest/WPFTest/bin/Debug/Files/list.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vsprojects\WPFTest\WPFTest\bin\Debug\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C++ project\codes-by--lhw\WPFTest\WPFTest\bin\Debug\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="5835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -304,11 +304,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,26 +426,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-60CE-4FE8-B9AB-FFF7B92EA1EC}"/>
+              <c16:uniqueId val="{00000000-3410-4543-A5D6-8CD04CA20939}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -494,26 +494,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-60CE-4FE8-B9AB-FFF7B92EA1EC}"/>
+              <c16:uniqueId val="{00000001-3410-4543-A5D6-8CD04CA20939}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -562,26 +562,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-60CE-4FE8-B9AB-FFF7B92EA1EC}"/>
+              <c16:uniqueId val="{00000002-3410-4543-A5D6-8CD04CA20939}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -630,26 +630,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>84</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-60CE-4FE8-B9AB-FFF7B92EA1EC}"/>
+              <c16:uniqueId val="{00000003-3410-4543-A5D6-8CD04CA20939}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -698,26 +698,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-60CE-4FE8-B9AB-FFF7B92EA1EC}"/>
+              <c16:uniqueId val="{00000004-3410-4543-A5D6-8CD04CA20939}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -766,26 +766,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-60CE-4FE8-B9AB-FFF7B92EA1EC}"/>
+              <c16:uniqueId val="{00000005-3410-4543-A5D6-8CD04CA20939}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -834,26 +834,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-60CE-4FE8-B9AB-FFF7B92EA1EC}"/>
+              <c16:uniqueId val="{00000006-3410-4543-A5D6-8CD04CA20939}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -902,26 +902,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-60CE-4FE8-B9AB-FFF7B92EA1EC}"/>
+              <c16:uniqueId val="{00000007-3410-4543-A5D6-8CD04CA20939}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -935,12 +935,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="1471561487"/>
-        <c:axId val="1471563151"/>
-        <c:axId val="1394188079"/>
+        <c:axId val="52564592"/>
+        <c:axId val="52565840"/>
+        <c:axId val="2141795760"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1471561487"/>
+        <c:axId val="52564592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -950,7 +950,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1471563151"/>
+        <c:crossAx val="52565840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -958,7 +958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1471563151"/>
+        <c:axId val="52565840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -969,12 +969,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1471561487"/>
+        <c:crossAx val="52564592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="1394188079"/>
+        <c:axId val="2141795760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,7 +983,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1471563151"/>
+        <c:crossAx val="52565840"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -1313,215 +1313,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>28030201046</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="1">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1">
+        <v>55</v>
+      </c>
+      <c r="F4" s="1">
+        <v>91</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1">
+        <v>43</v>
+      </c>
+      <c r="I4" s="1">
+        <v>39</v>
+      </c>
+      <c r="J4" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>29030201001</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1">
+        <v>69</v>
+      </c>
+      <c r="E5" s="1">
+        <v>99</v>
+      </c>
+      <c r="F5" s="1">
+        <v>49</v>
+      </c>
+      <c r="G5" s="1">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>29030201002</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
         <v>60</v>
       </c>
-      <c r="E4" s="2">
+      <c r="D6" s="1">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1">
+        <v>79</v>
+      </c>
+      <c r="F6" s="1">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1">
+        <v>61</v>
+      </c>
+      <c r="H6" s="1">
+        <v>55</v>
+      </c>
+      <c r="I6" s="1">
+        <v>61</v>
+      </c>
+      <c r="J6" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>29030201003</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1">
+        <v>77</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>83</v>
+      </c>
+      <c r="H7" s="1">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1">
+        <v>65</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>29030201004</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1">
+        <v>83</v>
+      </c>
+      <c r="G8" s="1">
+        <v>79</v>
+      </c>
+      <c r="H8" s="1">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1">
+        <v>74</v>
+      </c>
+      <c r="J8" s="1">
         <v>32</v>
-      </c>
-      <c r="F4" s="2">
-        <v>84</v>
-      </c>
-      <c r="G4" s="2">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2">
-        <v>100</v>
-      </c>
-      <c r="I4" s="2">
-        <v>38</v>
-      </c>
-      <c r="J4" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>29030201001</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>61</v>
-      </c>
-      <c r="D5" s="2">
-        <v>82</v>
-      </c>
-      <c r="E5" s="2">
-        <v>49</v>
-      </c>
-      <c r="F5" s="2">
-        <v>43</v>
-      </c>
-      <c r="G5" s="2">
-        <v>52</v>
-      </c>
-      <c r="H5" s="2">
-        <v>6</v>
-      </c>
-      <c r="I5" s="2">
-        <v>34</v>
-      </c>
-      <c r="J5" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>29030201002</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>37</v>
-      </c>
-      <c r="D6" s="2">
-        <v>90</v>
-      </c>
-      <c r="E6" s="2">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2">
-        <v>37</v>
-      </c>
-      <c r="G6" s="2">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2">
-        <v>64</v>
-      </c>
-      <c r="I6" s="2">
-        <v>68</v>
-      </c>
-      <c r="J6" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>29030201003</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>60</v>
-      </c>
-      <c r="D7" s="2">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2">
-        <v>85</v>
-      </c>
-      <c r="F7" s="2">
-        <v>38</v>
-      </c>
-      <c r="G7" s="2">
-        <v>21</v>
-      </c>
-      <c r="H7" s="2">
-        <v>52</v>
-      </c>
-      <c r="I7" s="2">
-        <v>62</v>
-      </c>
-      <c r="J7" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>29030201004</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>57</v>
-      </c>
-      <c r="D8" s="2">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2">
-        <v>81</v>
-      </c>
-      <c r="F8" s="2">
-        <v>87</v>
-      </c>
-      <c r="G8" s="2">
-        <v>55</v>
-      </c>
-      <c r="H8" s="2">
-        <v>53</v>
-      </c>
-      <c r="I8" s="2">
-        <v>98</v>
-      </c>
-      <c r="J8" s="2">
-        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1604,36 +1604,36 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>62</v>
+        <f t="shared" ref="C18:J22" ca="1" si="0">_xlfn.CEILING.MATH(RAND()*100)</f>
+        <v>96</v>
       </c>
       <c r="D18">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>47</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
       </c>
       <c r="E18">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>66</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="F18">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>72</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
       </c>
       <c r="G18">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>98</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="H18">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>65</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
       </c>
       <c r="I18">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>68</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
       </c>
       <c r="J18">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>38</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1644,36 +1644,36 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>29</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
       </c>
       <c r="D19">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>32</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
       </c>
       <c r="E19">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
       </c>
       <c r="F19">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>92</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
       </c>
       <c r="G19">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>40</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
       </c>
       <c r="H19">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>93</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
       </c>
       <c r="I19">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>58</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
       </c>
       <c r="J19">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>22</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1684,36 +1684,36 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>58</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
       </c>
       <c r="D20">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>57</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
       </c>
       <c r="E20">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>59</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
       </c>
       <c r="F20">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>46</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="G20">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>20</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
       </c>
       <c r="H20">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>37</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
       </c>
       <c r="I20">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>32</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
       </c>
       <c r="J20">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1724,36 +1724,36 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
       </c>
       <c r="D21">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>95</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
       </c>
       <c r="E21">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>80</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
       </c>
       <c r="F21">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>98</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
       </c>
       <c r="G21">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>97</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
       </c>
       <c r="H21">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>51</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
       </c>
       <c r="I21">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>78</v>
       </c>
       <c r="J21">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1764,36 +1764,36 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>55</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
       </c>
       <c r="D22">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="E22">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>66</v>
-      </c>
       <c r="F22">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>65</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
       </c>
       <c r="G22">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>64</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
       </c>
       <c r="H22">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>85</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
       </c>
       <c r="I22">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>98</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
       </c>
       <c r="J22">
-        <f ca="1">_xlfn.CEILING.MATH(RAND()*100)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2114,7 +2114,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>